--- a/algorithms_result.xlsx
+++ b/algorithms_result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>method</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>neuralNetworks</t>
-  </si>
-  <si>
-    <t>SVM</t>
   </si>
   <si>
     <t>overSample_KNN</t>
@@ -470,39 +467,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -519,7 +516,7 @@
         <v>0.342036553524804</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -536,7 +533,7 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -553,7 +550,7 @@
         <v>0.43386243386243301</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -570,360 +567,343 @@
         <v>0.33832976445396101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.86636249213341698</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.20144032921810601</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.72792707739957596</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.31553369215812499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.83033354310887297</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.36969696969696902</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.408019801672654</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.38768700494624397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.85084959093769597</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.27272727272727E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4.4354838709677401E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.86636249213341698</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.20144032921810601</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.72792707739957596</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.31553369215812499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="2">
-        <v>0.83033354310887297</v>
+        <v>0.75110132158590304</v>
       </c>
       <c r="C8" s="2">
-        <v>0.36969696969696902</v>
+        <v>0.502100840336134</v>
       </c>
       <c r="D8" s="2">
-        <v>0.408019801672654</v>
+        <v>0.30138713745271101</v>
       </c>
       <c r="E8" s="2">
-        <v>0.38768700494624397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+        <v>0.376674546887312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.75110132158590304</v>
+        <v>0.83511642542479503</v>
       </c>
       <c r="C9" s="2">
-        <v>0.502100840336134</v>
+        <v>0.294845360824742</v>
       </c>
       <c r="D9" s="2">
-        <v>0.30138713745271101</v>
+        <v>0.44</v>
       </c>
       <c r="E9" s="2">
-        <v>0.376674546887312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+        <v>0.35308641975308602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.83511642542479503</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.294845360824742</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.35308641975308602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="4">
+        <v>0.75676526117054699</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.64302059496567499</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.31291759465478802</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.42097378277153502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.75676526117054699</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.64302059496567499</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.31291759465478802</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.42097378277153502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>0.80522341095028305</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.31198347107438001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.34553775743706999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.32790445168295301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.80522341095028305</v>
+        <v>0.87422907488986701</v>
       </c>
       <c r="C12" s="2">
-        <v>0.31198347107438001</v>
+        <v>0.22069716775599099</v>
       </c>
       <c r="D12" s="2">
-        <v>0.34553775743706999</v>
+        <v>0.70713532316919503</v>
       </c>
       <c r="E12" s="2">
-        <v>0.32790445168295301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+        <v>0.33636912946972503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.87422907488986701</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.22069716775599099</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.70713532316919503</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.33636912946972503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="B13" s="7">
         <v>0.76098174952800501</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C13" s="7">
         <v>0.514410480349345</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D13" s="7">
         <v>0.30588521296887899</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E13" s="7">
         <v>0.38302054377503297</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.48458149779735599</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.47034764826175801</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.14294592914853901</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.21925643469971401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="2">
-        <v>0.48458149779735599</v>
+        <v>0.8470736312146</v>
       </c>
       <c r="C15" s="2">
-        <v>0.47034764826175801</v>
+        <v>0.145194274028629</v>
       </c>
       <c r="D15" s="2">
-        <v>0.14294592914853901</v>
+        <v>0.51079136690647498</v>
       </c>
       <c r="E15" s="2">
-        <v>0.21925643469971401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.226114649681528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="2">
-        <v>0.8470736312146</v>
+        <v>0.30805538074260502</v>
       </c>
       <c r="C16" s="2">
-        <v>0.145194274028629</v>
+        <v>0.64621676891615498</v>
       </c>
       <c r="D16" s="2">
-        <v>0.51079136690647498</v>
+        <v>0.13492741246797599</v>
       </c>
       <c r="E16" s="2">
-        <v>0.226114649681528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.22324267043447499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2">
-        <v>0.30805538074260502</v>
+        <v>0.79955947136563799</v>
       </c>
       <c r="C17" s="2">
-        <v>0.64621676891615498</v>
+        <v>0.35152838427947503</v>
       </c>
       <c r="D17" s="2">
-        <v>0.13492741246797599</v>
+        <v>0.32135728542914099</v>
       </c>
       <c r="E17" s="2">
-        <v>0.22324267043447499</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.33576642335766399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.238263058527375</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.67361963190184004</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.12715223135416101</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.213923952017781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.79955947136563799</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.35152838427947503</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.32135728542914099</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.33576642335766399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
       <c r="B19" s="2">
-        <v>0.238263058527375</v>
+        <v>0.45022026431717999</v>
       </c>
       <c r="C19" s="2">
-        <v>0.67361963190184004</v>
+        <v>0.52229038854805698</v>
       </c>
       <c r="D19" s="2">
-        <v>0.12715223135416101</v>
+        <v>0.14426972871420199</v>
       </c>
       <c r="E19" s="2">
-        <v>0.213923952017781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.226035650514226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>0.45022026431717999</v>
+        <v>0.57016991818753904</v>
       </c>
       <c r="C20" s="2">
-        <v>0.52229038854805698</v>
+        <v>0.78372093023255796</v>
       </c>
       <c r="D20" s="2">
-        <v>0.14426972871420199</v>
+        <v>0.20931677018633499</v>
       </c>
       <c r="E20" s="2">
-        <v>0.226035650514226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.33039215686274498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2">
-        <v>0.57016991818753904</v>
+        <v>0.82441787287602197</v>
       </c>
       <c r="C21" s="2">
-        <v>0.78372093023255796</v>
+        <v>0.50697674418604599</v>
       </c>
       <c r="D21" s="2">
-        <v>0.20931677018633499</v>
+        <v>0.38652482269503502</v>
       </c>
       <c r="E21" s="2">
-        <v>0.33039215686274498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+        <v>0.43863179074446601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
-        <v>0.82441787287602197</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.50697674418604599</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.38652482269503502</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.43863179074446601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="4">
+        <v>0.72466960352422904</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.72558139534883703</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.29186155285313298</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.41627751834556298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.72466960352422904</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.72558139534883703</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.29186155285313298</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.41627751834556298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B23" s="2">
+        <v>0.79200755191944605</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.31941544885177398</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.31352459016393402</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.316442605997931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="2">
-        <v>0.79200755191944605</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.31941544885177398</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.31352459016393402</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.316442605997931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B24" s="4">
+        <v>0.76755821271239699</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.66953488372092995</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.32551340825842101</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.43804167993684801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.76755821271239699</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.66953488372092995</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.32551340825842101</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.43804167993684801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="B25" s="7">
         <v>0.66343612334801705</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C25" s="7">
         <v>0.68976744186046501</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D25" s="7">
         <v>0.23616462470418501</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E25" s="7">
         <v>0.34289171175547201</v>
       </c>
     </row>
